--- a/loaded_influencer_data/4chriisty/4chriisty_video.xlsx
+++ b/loaded_influencer_data/4chriisty/4chriisty_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7479306434656783662</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4212</v>
+        <v>4710</v>
       </c>
       <c r="C2" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D2" t="n">
         <v>34</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12.13200379867047</v>
+        <v>11.63481953290871</v>
       </c>
       <c r="I2" t="n">
-        <v>11.32478632478633</v>
+        <v>10.91295116772824</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8072174738841407</v>
+        <v>0.7218683651804672</v>
       </c>
       <c r="L2" t="n">
-        <v>1.923076923076923</v>
+        <v>1.974522292993631</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,2410 +558,2458 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7488908681703181610</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C3" t="n">
+        <v>215</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>@DearDahlia #deardahlia #kbeauty #petaldropliquidblush #blush #liquidblush #dewyblush</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>21.58273381294964</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.33453237410072</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.248201438848921</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.888489208633094</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7485962848355716398</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2466</v>
-      </c>
-      <c r="C3" t="n">
-        <v>416</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>3715</v>
+      </c>
+      <c r="C4" t="n">
+        <v>519</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>@fwee my new favorite product ever #haul #fwee #fyp #fweepuddingpot #fweejellypot #jelly #makeup #kbeauty</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>18.53203568532036</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.86942416869424</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.662611516626115</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.743714517437145</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>15.23553162853297</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.97039030955585</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.26514131897712</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.641991924629879</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7481814690738343214</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4900</v>
-      </c>
-      <c r="C4" t="n">
-        <v>728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>83</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>6194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>860</v>
+      </c>
+      <c r="D5" t="n">
+        <v>68</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>104</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>the BIGGEST pr package from @Dasique Global 💗 thank you so much!!😊😊#dasique #pr #fyp #kbeauty</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>16.20408163265306</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.85714285714286</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.346938775510204</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.693877551020408</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>14.98224087826929</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.88440426218921</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.097836616080077</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.679044236357766</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7480937527814212910</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1799</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>235</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>18400</v>
+      </c>
+      <c r="C6" t="n">
+        <v>860</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>104</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>the BIGGEST pr package from @Dasique Global 💗 thank you so much!!😊😊#dasique #pr #fyp #kbeauty</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.043478260869565</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.673913043478261</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3695652173913043</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5652173913043479</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7478091788356521262</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3458</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1937</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>247</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>it’s perfect for no makeup makeup days and very buildable! you can find @House of Hur ‘s blush on yesstyle! you can use my code CRISPY5 to save money as well</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>11.25153374233129</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.03680981595092</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2147239263803681</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.441717791411043</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H7" t="n">
+        <v>57.11393869288606</v>
+      </c>
+      <c r="I7" t="n">
+        <v>56.01503759398496</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@4chriisty/video/7478091788356521262</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3039</v>
-      </c>
-      <c r="C6" t="n">
-        <v>210</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7477444326298275118</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>221</v>
+      </c>
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>available on amazon! @frudia.official ##FrudiaUSA #FrudiaSunScreen #KBeauty #Koreansunscreen</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>7.272128989799276</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.910167818361303</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.361961171437973</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9871668311944718</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>6.67433831990794</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.357882623705409</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3164556962025317</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9781357882623706</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@4chriisty/video/7477444326298275118</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3139</v>
-      </c>
-      <c r="C7" t="n">
-        <v>336</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>37</v>
-      </c>
-      <c r="G7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7476337053916089642</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>350</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>use my yesstyle code CRISPY5 to save money 🤍
 @Flower Knows Makeup #flowerknows #unboxing</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>11.43676330041414</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.70404587448232</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.7327174259318254</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.178719337368589</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>1.764150943396227</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.650943396226415</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1132075471698113</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1839622641509434</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@4chriisty/video/7476337053916089642</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18900</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1351</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>261</v>
-      </c>
-      <c r="G8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7474850727739804971</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5742</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>280</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Replying to @kieanika🪐 @House of Hur blush in shade 08 berry purple 🍇#houseofhur #blush #makeup</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>7.444444444444444</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.148148148148148</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.380952380952381</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="H10" t="n">
+        <v>25.96656217345872</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.95646116335772</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.01010101010101</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.876349703935911</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@4chriisty/video/7474850727739804971</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5422</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@4chriisty/video/7473551922604051755</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82600</v>
+      </c>
+      <c r="C11" t="n">
         <v>573</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>39</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>57</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>You can use my code Christy5 on @Delivered Korea 🇰🇷 to save money!
 https://bit.ly/4gQff9i
 #choonsik #kakao #cute</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>11.28734784212468</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.56805606787163</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.7192917742530431</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.051272593139063</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H11" t="n">
+        <v>0.7409200968523002</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6937046004842615</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.04721549636803874</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.06900726392251816</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@4chriisty/video/7473551922604051755</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>82600</v>
-      </c>
-      <c r="C10" t="n">
-        <v>573</v>
-      </c>
-      <c r="D10" t="n">
-        <v>39</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>57</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>You can use my code Christy5 on @Delivered Korea 🇰🇷 to save money!
-https://bit.ly/4gQff9i
-#choonsik #kakao #cute</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7409200968523002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6937046004842615</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.04721549636803874</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.06900726392251816</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7471151076016803114</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>7210</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>4526</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>34</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>743</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>cari b wasn’t lying about this oil! this oil removed my makeup so well@Cistto_us @Cistto official</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>63.24549237170597</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>62.77392510402219</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.4715672676837726</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>10.30513176144244</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7470721039660551470</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>25200</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>680</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>87</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>i fear half of these products are now my holy grails #espoir #haul @espoir_official_us #kbeauty #korea #korean</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2.817460317460318</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>2.698412698412699</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1190476190476191</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.3452380952380952</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7469601687737486634</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>16400</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>950</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>33</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>127</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>thank you @House of Hur 🫶🫶#houseofhur #blush #new #kbeauty #serumblush #yesstyle #oliveyoung</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>5.99390243902439</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>5.792682926829269</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.201219512195122</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.774390243902439</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7465476019546246446</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>21200</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>2841</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>45</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>229</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>thank you @House of Hur 🫶🫶#houseofhur #blush #new #kbeauty #serumblush #yesstyle #oliveyoung</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>13.61320754716981</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>13.40094339622641</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.2122641509433962</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>1.080188679245283</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7464012354838105387</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>14600</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>3647</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>89</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>499</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>thank you SOO much @colorgram.official @OLIVE YOUNG Global #cologram #cake #kbeauty</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>25.58904109589041</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>24.97945205479452</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.6095890410958904</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>3.417808219178082</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7463241894030626090</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>14000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>780</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>25</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>135</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>i loveee Juńg Seam Moold products 💗@JUNGSAEMMOOL #jungseammool #jsmbeauty #kmakeup #kskincare</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>5.75</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>5.571428571428571</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.1785714285714286</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.9642857142857142</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7462523240506854699</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>5956</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>1060</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>61</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>152</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>love love 💕@HERA #hera #new #heranewcushion #herareflectioncushion #cushion</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>18.82135661517797</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>17.79717931497649</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.024177300201478</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>2.552048354600403</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7462200243573116203</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>6991</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>571</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>31</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>72</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>use my YesStyle rewards code CRISPY5 to save money!##makeup ##kbeauty ##yesstyle #</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>8.611071377485338</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>8.167644113860678</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.4434272636246603</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>1.029895580031469</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7458921573706403118</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>9361</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>824</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>35</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>90</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money😚💗#makeup #kbeauty #asmr</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>9.176370045935263</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>8.802478367695759</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.3738916782395044</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.9614357440444397</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7458523747558116654</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>8375</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>1033</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>54</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>165</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>my fave rose lippies!
 use my yesstyle rewards code CRISPY5 to save money💓 #kbeauty #makeup #romand #viral</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>12.97910447761194</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>12.33432835820896</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.6447761194029851</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>1.970149253731343</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/photo/7456282007488826666</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>395100</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>824</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>50</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>115</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>thank you @Millefee global #millefee #millefée #milleféeyou #fyp #pr #unboxing #beauty</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>0.2212098202986586</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>0.2085547962541129</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.01265502404454569</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.02910655530245508</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7454730162903469354</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>10700</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>80100</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>380</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>5465</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>pinterest palette trend #pinterest #palette #eyeshadow</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>752.1495327102804</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>748.5981308411215</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.551401869158879</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>51.07476635514019</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-05</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7452516712295042350</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>21700</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>805</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>62</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>94</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>love love everything 🤭💗@Mediheal Us @mediheal_official @MEDIHEAL #pr #unboxing #mediheal #kbeauty</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>3.995391705069124</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>3.709677419354839</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.2857142857142857</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.4331797235023042</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7451428778364112174</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>30000</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>3258</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>100</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>481</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>merry christmas everyone!! 🎅🎄🎁
 use my yesstyle rewards code CRISPY5 to save money! #christmas #routine</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>11.19333333333333</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>10.86</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.3333333333333334</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>1.603333333333333</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7450945117625535790</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>26900</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>2329</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>52</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>372</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>soo cutee #florette #florettelipstick #cbeauty #lipgloss #palette #pink #goviral #fyp</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>8.851301115241636</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>8.657992565055762</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1933085501858736</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>1.382899628252788</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7450655183517830442</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>15900</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>4551</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>131</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>883</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #yesstyle #yesstyleinfluencers</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>29.44654088050315</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>28.62264150943396</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.8238993710691823</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>5.553459119496855</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7450345861789273386</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>26400</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>1618</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>39</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>261</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>one of the most unique products ive ever tried! @JOOCYEE US @Joocyee_global
 nails ib: @sophie ✯</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>6.276515151515151</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>6.128787878787879</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1477272727272727</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.9886363636363635</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7449200755858263338</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>16400</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>2393</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>24</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>497</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>so prettyy!! it has glitters in it also☺️ #joocyee #lipstick #glitter #glitterlipstick #gloss #cbeauty #jbeauty</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>14.73780487804878</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>14.59146341463414</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.1463414634146341</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>3.030487804878049</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7448832055741484334</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>11400</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>1666</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>81</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>261</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! 🩵💗#perfect #perfectwhip #beauty #foam #cleanser</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>15.32456140350877</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>14.6140350877193</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.7105263157894737</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>2.289473684210526</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7448447131335150894</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>6286</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>1187</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>43</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>155</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #blue #fyp #skincare #skincareroutine #aesthetic</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>19.56729239580019</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>18.88323258033726</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.6840598154629335</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>2.465797009226853</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7447694854659902766</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>11400</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>409</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>34</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>57</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #fyp #makeup #kbeauty #jbeauty #eyelash #pink</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>3.885964912280702</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>3.587719298245614</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2982456140350877</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>0.5</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7446137113759878446</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>8504</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>1658</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>373</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>207</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #fyp #makeup #kbeauty #jbeauty #eyelash #pink</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>23.88287864534337</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>19.4967074317968</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.386171213546566</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>2.43414863593603</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7445889004093852971</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>57900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>812</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>35</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>107</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>rating all the korean cushions i use! ft. @AMUSE @HERA @jsmbeauty_us @2aN @TIRTIR Inc.
 use my yesstyle rewards code CRISPY5 to save money!</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1.46286701208981</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>1.402417962003454</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.06044905008635578</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.1848013816925734</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7445523978908618026</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>7704</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>10800</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>152</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1508</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! 🍨🩰 #fyp #romand #lip #liptint #yesstyle #beauty</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>142.159916926272</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>140.1869158878505</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.973001038421599</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>19.5742471443406</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7445391802355698990</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>9450</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>723</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>56</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>76</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>@dr.althea_official 💗#skincare #dralthea #korea #kbeauty</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>8.243386243386244</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>7.650793650793651</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.5925925925925926</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.8042328042328042</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7442108121272732974</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>17700</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>1269</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>48</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>155</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>use my flower knows discount code CRISPY5 to save money! #flowerknows @Flower Knows Makeup #fyp</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>7.440677966101696</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>7.169491525423728</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.2711864406779661</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>0.8757062146892656</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7441016150537866539</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>10300</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>1096</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>11</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>96</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>soo cute🥹💗💗#blindbox #cute #nyota #popmart #unboxing</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>10.74757281553398</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>10.64077669902913</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.1067961165048544</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.9320388349514563</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7438810894911458606</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>58900</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>1124</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>67</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>139</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money!💗
 #yesstyle #yesstyleinfluencers #yesstylereview</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>2.022071307300509</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>1.908319185059423</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1137521222410866</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.2359932088285229</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-11-25</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7438040148605996331</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>22800</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>3391</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>42</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>485</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>genuinely so worth it😭#fyp #medicube #pink #kbeauty #skincare @Medicube Global</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>15.05701754385965</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>14.87280701754386</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1842105263157895</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>2.12719298245614</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-11-19</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7436209032941047083</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>11300</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>3152</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>48</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>444</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #japan #japanese #beauty #jbeauty #haul #canmake #pink</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>28.31858407079646</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>27.89380530973451</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.424778761061947</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>3.929203539823009</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-11-17</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7435074170419006762</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>16300</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>801</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>25</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>72</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money! #japan #japanese #beauty #jbeauty #haul #canmake #pink</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>5.067484662576687</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>4.914110429447853</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1533742331288344</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.4417177914110429</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-11-12</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7432440832030002475</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>12300</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>1632</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>54</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>172</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>@Kwailnara #fruitlotion #kwailnara #koreanbodylotion</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>13.70731707317073</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>13.26829268292683</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.4390243902439025</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>1.398373983739837</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-11-9</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7428373408121113902</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>32700</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>957</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>60</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>115</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>@HERA 💕#hera #pr #unboxing #jennie #jenniekim #blackpink #oliveyoung #korea #kbeauty</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>3.110091743119266</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>2.926605504587156</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.1834862385321101</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.3516819571865443</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-11-2</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7427548363396058411</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>50700</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>2660</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>26</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>345</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>so good i have 3 of these 😭😭#canmake #beauty #jbeauty #japan #goviral #fyp #pink #powder</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>5.297830374753452</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>5.246548323471401</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.05128205128205128</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.680473372781065</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-10-22</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7426961750249065771</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>19900</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>4749</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>39</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>641</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>so good i have 3 of these 😭😭#canmake #beauty #jbeauty #japan #goviral #fyp #pink #powder</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>24.06030150753769</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>23.8643216080402</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1959798994974874</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>3.221105527638191</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-10-20</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7426164397753568554</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>14000</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>2777</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D47" t="n">
         <v>58</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>387</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money!💖🌞🔥#lip #romand #kbeauty #makeup #organize #pink</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H47" t="n">
         <v>20.25</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I47" t="n">
         <v>19.83571428571429</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.4142857142857143</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L47" t="n">
         <v>2.764285714285714</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-10-18</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7425361471359552811</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B48" t="n">
         <v>129400</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C48" t="n">
         <v>725</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D48" t="n">
         <v>16</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>96</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>such a pretty color as well💖 @BAGSMART</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>0.5726429675425039</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>0.5602782071097373</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.01236476043276661</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>0.07418856259659969</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-10-16</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7424675292104396075</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>21500</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>18400</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>191</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2094</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>chuckle</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>86.46976744186047</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>85.58139534883721</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.8883720930232559</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>9.73953488372093</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-10-14</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7424331758918847787</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>14800</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>3288</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>88</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>512</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>use my yesstyle rewards code CRISPY5 to save money #grwm #christysdiary #diary #cute #brandy #brandymelville</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>22.81081081081081</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>22.21621621621622</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.5945945945945946</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>3.45945945945946</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-10-12</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@4chriisty/video/7423135194586041643</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>16200</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>1394</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>70</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>172</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>heh #asmr #desk #click #asmrsounds #sounds #tingles #asmrvideo</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>9.037037037037036</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>8.604938271604938</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.4320987654320987</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>1.061728395061728</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-10-11</t>
         </is>
